--- a/spreadsheet/macrofree/datasecurity_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/datasecurity_checklist.ja.xlsx
@@ -1101,18 +1101,18 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>マネージド ID を使用してサービスに対して認証する</t>
+          <t>転送中の機密データを暗号化する</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID を既定の認証方法として使用して、データ プレーン アクセスを制御します。</t>
+          <t>これはデフォルトのデプロイメントで有効になっているため、追加の構成は必要ありません。</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1128,7 +1128,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/synapse-service-identity?context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/transport-layer-security-configure-minimum-version</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1136,7 +1136,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>cd289bed-6b17-4cb8-8454-61e1aee3453a</t>
+          <t>21d41d25-00c8-417b-b9ea-c41fd3390798</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1153,17 +1153,17 @@
       <c r="B10" s="21" t="inlineStr"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>高い権限を持つユーザーや管理ユーザーを分離して制限し、MFAと条件付きポリシーを有効にする</t>
+          <t>マネージド ID を使用してサービスに対して認証する</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>日常的な管理操作に必要ない場合は、緊急時のみの使用のためにローカル管理者アカウントを無効または制限します。</t>
+          <t>Microsoft Entra ID を既定の認証方法として使用して、データ プレーン アクセスを制御します。</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1172,13 +1172,17 @@
         </is>
       </c>
       <c r="G10" s="21" t="n"/>
-      <c r="H10" s="15" t="n"/>
+      <c r="H10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/synapse-service-identity?context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
+        </is>
+      </c>
       <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>ec823923-7a15-42d6-ac5e-402925388e5d</t>
+          <t>cd289bed-6b17-4cb8-8454-61e1aee3453a</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1189,20 +1193,16 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Azure RBAC を使用してストレージへのアクセスを制御し、Synapse RBAC を使用してチームのペルソナに応じてワークスペース レベルでアクセスを制御して、データとコンピューティングへのアクセスをきめ細かくします</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>Azure Synapse には、Synapse Studio のさまざまな側面を管理するための Synapse ロールベースのアクセス制御 (RBAC) ロールも含まれています。これらの組み込みロールを活用して、ユーザー、グループ、またはその他のセキュリティ プリンシパルにアクセス許可を割り当て、コード成果物の発行、公開されたコード成果物の一覧表示またはアクセス、Apache Spark プールと統合ランタイムでのコードの実行、資格情報で保護されているリンクされた (データ) サービスへのアクセス、ジョブ実行の監視またはキャンセル、ジョブ出力と実行ログの確認を行うことができます。</t>
-        </is>
-      </c>
+          <t>デフォルトで保存データの暗号化を有効にする</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1214,17 +1214,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-understand-what-role-you-need</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>a9c27d9c-42bb-46cd-8c79-99a246f3389a</t>
+          <t>bc288bec-6a17-4ca7-8444-51e1add3452a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1241,13 +1237,17 @@
       <c r="B12" s="21" t="inlineStr"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>RLS、CLS、データ マスキングを専用の SQL プール内の SQL ワークロードに実装して、セキュリティのレイヤーを追加する</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="n"/>
+          <t>高い権限を持つユーザーや管理ユーザーを分離して制限し、MFAと条件付きポリシーを有効にする</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="inlineStr">
+        <is>
+          <t>日常的な管理操作に必要ない場合は、緊急時のみの使用のためにローカル管理者アカウントを無効または制限します。</t>
+        </is>
+      </c>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1256,17 +1256,13 @@
         </is>
       </c>
       <c r="G12" s="21" t="n"/>
-      <c r="H12" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/sql/relational-databases/security/row-level-security?view=sql-server-ver16&amp;context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
-        </is>
-      </c>
+      <c r="H12" s="15" t="n"/>
       <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>7f42c78e-78cb-46a2-8ad1-a0916e6a8d8f</t>
+          <t>ec823923-7a15-42d6-ac5e-402925388e5d</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1277,18 +1273,18 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>マネージド vnet ワークスペースを使用して、パブリック インターネット経由のアクセスを制限する</t>
+          <t>必要に応じて、保存データの暗号化でカスタマー マネージド キー オプションを使用する</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Azure Synapse ワークスペースを作成するときに、Microsoft Azure Virtual Network に関連付けることを選択できます。ワークスペースに関連付けられている仮想ネットワークは、Azure Synapse によって管理されます。この仮想ネットワークは、マネージド ワークスペース仮想ネットワークと呼ばれます。これは、ワークスペースをデプロイするときに選択できます</t>
+          <t>Keyvaults を使用して CMK を保存する</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1304,7 +1300,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-vnet?view=sql-server-ver16</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/configure-customer-managed-key?tabs=Key-Vault</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1312,7 +1308,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>e2436b03-36db-455e-8796-0eee0bdf4cc2</t>
+          <t>ec723923-7a15-41c5-ab5e-401915387e5c</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1323,18 +1319,18 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>外部サービスに接続し、パブリックアクセスを無効にするようにプライベートエンドポイントを設定します</t>
+          <t>Azure RBAC を使用してストレージへのアクセスを制御し、Synapse RBAC を使用してチームのペルソナに応じてワークスペース レベルでアクセスを制御して、データとコンピューティングへのアクセスをきめ細かくします</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>機密データを保護するために、ワークスペース エンドポイントへのパブリック アクセスを完全に無効にすることをお勧めします。これにより、すべてのワークスペース エンドポイントにプライベート エンドポイントを使用してのみアクセスできるようになります。</t>
+          <t>Azure Synapse には、Synapse Studio のさまざまな側面を管理するための Synapse ロールベースのアクセス制御 (RBAC) ロールも含まれています。これらの組み込みロールを活用して、ユーザー、グループ、またはその他のセキュリティ プリンシパルにアクセス許可を割り当て、コード成果物の発行、公開されたコード成果物の一覧表示またはアクセス、Apache Spark プールと統合ランタイムでのコードの実行、資格情報で保護されているリンクされた (データ) サービスへのアクセス、ジョブ実行の監視またはキャンセル、ジョブ出力と実行ログの確認を行うことができます。</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1350,7 +1346,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-private-endpoints?view=sql-server-ver16</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-understand-what-role-you-need</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1358,7 +1354,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>efc4d761-c31d-425f-bbb4-7a393a040ed3</t>
+          <t>a9c27d9c-42bb-46cd-8c79-99a246f3389a</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1369,21 +1365,21 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>パブリック アクセスを有効にする場合は、IP ファイアウォール ルールを構成することを強くお勧めします</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="inlineStr">
-        <is>
-          <t>パブリック アクセスを有効にする必要がある場合は、指定したパブリック IP アドレスの一覧からの受信接続のみを許可するように IP ファイアウォール規則を構成することを強くお勧めします。</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="n"/>
+          <t>RLS、CLS、データ マスキングを専用の SQL プール内の SQL ワークロードに実装して、セキュリティのレイヤーを追加する</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -1392,7 +1388,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-ip-firewall</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/security/row-level-security?view=sql-server-ver16&amp;context=%2Fazure%2Fsynapse-analytics%2Fcontext%2Fcontext</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1400,7 +1396,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>294798b1-178a-42c5-a46c-eb544350d092</t>
+          <t>7f42c78e-78cb-46a2-8ad1-a0916e6a8d8f</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1417,10 +1413,14 @@
       <c r="B16" s="21" t="inlineStr"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>企業ネットワークから離れるべきではない機密データを扱っている場合は、vnet に SHIR VM をデプロイします</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n"/>
+          <t>マネージド vnet ワークスペースを使用して、パブリック インターネット経由のアクセスを制限する</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="inlineStr">
+        <is>
+          <t>Azure Synapse ワークスペースを作成するときに、Microsoft Azure Virtual Network に関連付けることを選択できます。ワークスペースに関連付けられている仮想ネットワークは、Azure Synapse によって管理されます。この仮想ネットワークは、マネージド ワークスペース仮想ネットワークと呼ばれます。これは、ワークスペースをデプロイするときに選択できます</t>
+        </is>
+      </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1434,7 +1434,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/create-self-hosted-integration-runtime?tabs=data-factory</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-vnet?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1442,7 +1442,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>d234292b-7528-4537-a551-c5bf4e4f1854</t>
+          <t>e2436b03-36db-455e-8796-0eee0bdf4cc2</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1453,23 +1453,23 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>データ流出防止 (DEP) を有効にする</t>
+          <t>Microsoft Entra ID を既定の認証方法として使用し、可能な限りローカル アクセスを無効にします</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>これはワークスペースをデプロイするときにのみ実行できますが、PyPI などのパブリック リポジトリからインストールされた Python ライブラリはサポートされていません。(有効にする前に制限について考えてください)</t>
+          <t>デフォルトの認証方法として Microsoft Entra ID を使用します。</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1478,17 +1478,13 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/how-to-create-a-workspace-with-data-exfiltration-protection</t>
-        </is>
-      </c>
+      <c r="H17" s="15" t="n"/>
       <c r="I17" s="15" t="n"/>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>287d5cdc-126c-4c03-8af5-b1fc6898a535</t>
+          <t>a9c26d9c-42bb-45bd-8c69-99a246e3389a</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1499,18 +1495,18 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>ワークスペースのカスタマー マネージド キーを使用した保存時のデータ暗号化</t>
+          <t>外部サービスに接続し、パブリックアクセスを無効にするようにプライベートエンドポイントを設定します</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>暗号化の最初のレイヤーは Microsoft マネージド キーによって行われますが、カスタマー マネージド キーを使用して 2 番目の暗号化レイヤーを追加できます</t>
+          <t>機密データを保護するために、ワークスペース エンドポイントへのパブリック アクセスを完全に無効にすることをお勧めします。これにより、すべてのワークスペース エンドポイントにプライベート エンドポイントを使用してのみアクセスできるようになります。</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1526,7 +1522,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/security/workspaces-encryption</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-managed-private-endpoints?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1534,7 +1530,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>e337897e-31b6-47d6-9be5-962a1193846d</t>
+          <t>efc4d761-c31d-425f-bbb4-7a393a040ed3</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1545,18 +1541,18 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>転送中のデータ暗号化</t>
+          <t>マネージド ID を使用してサービスに対して認証する</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Azure Synapse は TLS を利用して、移動中のデータが暗号化されるようにします。SQL 専用プールでは、暗号化のために TLS 1.0、TLS 1.1、TLS 1.2 バージョンがサポートされています。このバージョンでは、Microsoft が提供するドライバーでは既定で TLS 1.2 が使用されます。サーバーレス SQL プールと Apache Spark プールでは、すべての送信接続に TLS 1.2 が使用されます。</t>
+          <t>デフォルトの認証方法として Microsoft Entra ID を使用します。</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1570,17 +1566,13 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/synapse-analytics/guidance/security-white-paper-data-protection#data-in-transit</t>
-        </is>
-      </c>
+      <c r="H19" s="15" t="n"/>
       <c r="I19" s="15" t="n"/>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>697cc391-ed16-4b2d-886f-0a1241bddde6</t>
+          <t>7e42c77d-78cb-46a2-8ad1-9f916e698d8f</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1591,38 +1583,38 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>パスワード、セキュリティ、キーを Azure Key Vault に格納する</t>
+          <t>パブリック アクセスを有効にする場合は、IP ファイアウォール ルールを構成することを強くお勧めします</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Keyvaults を使用してシークレットと資格情報を格納する</t>
-        </is>
-      </c>
-      <c r="E20" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
+          <t>パブリック アクセスを有効にする必要がある場合は、指定したパブリック IP アドレスの一覧からの受信接続のみを許可するように IP ファイアウォール規則を構成することを強くお勧めします。</t>
+        </is>
+      </c>
+      <c r="E20" s="21" t="n"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>未確認</t>
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="n"/>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/synapse-workspace-ip-firewall</t>
+        </is>
+      </c>
       <c r="I20" s="15" t="n"/>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>8a477cde-b486-41bc-9bc1-0ae66e25e4d5</t>
+          <t>294798b1-178a-42c5-a46c-eb544350d092</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1631,18 +1623,18 @@
       <c r="P20" s="25" t="n"/>
     </row>
     <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="21" t="inlineStr"/>
+      <c r="A21" s="21" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
       <c r="B21" s="21" t="inlineStr"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>パイプライン アクティビティで Azure Key Vault シークレットを使用する</t>
-        </is>
-      </c>
-      <c r="D21" s="21" t="inlineStr">
-        <is>
-          <t>資格情報またはシークレット値を Azure Key Vault に格納し、パイプラインの実行中にそれらを使用してアクティビティに渡すことができます。</t>
-        </is>
-      </c>
+          <t>条件付きアクセス ポリシーを構成して、データ プレーンでのアクセスを制限する</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1654,17 +1646,13 @@
         </is>
       </c>
       <c r="G21" s="21" t="n"/>
-      <c r="H21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
-        </is>
-      </c>
+      <c r="H21" s="15" t="n"/>
       <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a3aec2c4-e243-46b0-936d-b55e17960eee</t>
+          <t>adfe27bd-e187-401a-a352-baa9b68a088c</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1675,23 +1663,19 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>必要に応じてローカルユーザーの使用を制限する</t>
-        </is>
-      </c>
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>データ プレーン アクセスのローカル認証方法の使用を制限します。代わりに、データ プレーン アクセスを制御するための既定の認証方法として Microsoft Entra ID を使用します。</t>
-        </is>
-      </c>
+          <t>企業ネットワークから離れるべきではない機密データを扱っている場合は、vnet に SHIR VM をデプロイします</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1700,13 +1684,17 @@
         </is>
       </c>
       <c r="G22" s="21" t="n"/>
-      <c r="H22" s="15" t="n"/>
+      <c r="H22" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/create-self-hosted-integration-runtime?tabs=data-factory</t>
+        </is>
+      </c>
       <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>0bdf4cc2-efc4-4d76-8c31-d25ffbb47a39</t>
+          <t>d234292b-7528-4537-a551-c5bf4e4f1854</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1723,17 +1711,17 @@
       <c r="B23" s="21" t="inlineStr"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>マネージド ID を使用してサービスに対して認証する</t>
+          <t>Azure Key Vault を使用して、シークレットと crendentials を格納します。</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>マネージド ID を使用すると、資格情報を管理する必要がなくなります。マネージド ID は、Microsoft Entra 認証をサポートするリソースに接続するときに、サービス インスタンスの ID を提供します。</t>
+          <t>キーと secert の公開を制限する</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1742,17 +1730,13 @@
         </is>
       </c>
       <c r="G23" s="21" t="n"/>
-      <c r="H23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/data-factory-service-identity</t>
-        </is>
-      </c>
+      <c r="H23" s="15" t="n"/>
       <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>3a040ed3-2947-498b-8178-a2c5a46ceb54</t>
+          <t>9a80822b-8eb9-4d1b-a77f-26e5e6beba8e</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1763,23 +1747,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>高い権限を持つユーザーや管理ユーザーを分離して制限し、MFAと条件付きポリシーを有効にする</t>
+          <t>データ流出防止 (DEP) を有効にする</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>日常的な管理操作に必要ない場合は、緊急時のみの使用のためにローカル管理者アカウントを無効または制限します。</t>
+          <t>これはワークスペースをデプロイするときにのみ実行できますが、PyPI などのパブリック リポジトリからインストールされた Python ライブラリはサポートされていません。(有効にする前に制限について考えてください)</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1788,13 +1772,17 @@
         </is>
       </c>
       <c r="G24" s="21" t="n"/>
-      <c r="H24" s="15" t="n"/>
+      <c r="H24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/how-to-create-a-workspace-with-data-exfiltration-protection</t>
+        </is>
+      </c>
       <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>4350d092-d234-4292-a752-8537a551c5bf</t>
+          <t>287d5cdc-126c-4c03-8af5-b1fc6898a535</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1805,19 +1793,19 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>パブリックインターネット経由のアクセスを無効にし、ファイアウォールルールまたは信頼できるサービスルールのいずれかを設定します</t>
+          <t>高い権限を持つユーザーや管理ユーザーを分離して制限する</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1832,7 +1820,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>4e4f1854-287d-45cd-a126-cc032af5b1fc</t>
+          <t>d4f3437c-c336-4d81-9f27-a71efe1b9b5d</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1843,16 +1831,20 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>企業ネットワークから離れるべきではない機密データを扱っている場合は、vnet に SHIR VM をデプロイします</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="n"/>
+          <t>Shared Access Signature (SAS) を使用して Event Hubs リソースへのアクセスを認証し、ローカル ユーザーを制限する</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="inlineStr">
+        <is>
+          <t>Event Hubs 名前空間を作成すると、名前空間に対して RootManageSharedAccessKey という名前のポリシー ルールが自動的に作成されます。このポリシーには、名前空間全体に対する管理アクセス許可があります。このルールは管理ルート アカウントのように扱い、アプリケーションで使用しないことをお勧めします。ポータルの名前空間の [構成] タブで、PowerShell または Azure CLI を使用して追加のポリシー ルールを作成できます。ローカル認証方法やアカウントの使用は避け、可能な限り無効にする必要があります。代わりに、可能な場合は Azure AD を使用して認証します。</t>
+        </is>
+      </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -1864,13 +1856,17 @@
         </is>
       </c>
       <c r="G26" s="21" t="n"/>
-      <c r="H26" s="15" t="n"/>
+      <c r="H26" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/event-hubs/authenticate-shared-access-signature</t>
+        </is>
+      </c>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>6898a535-e337-4897-b31b-67d67be5962a</t>
+          <t>9de0d5d7-21d4-41d2-900c-817bf9eac41f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1881,18 +1877,18 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>マネージド vnet IR を使用して、Azure Integration Runtime のパブリック インターネット経由のアクセスを制限する</t>
+          <t>Azure RBAC を使用してアクセスをきめ細かくする</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Data Factory マネージド仮想ネットワーク内に Azure 統合ランタイムを作成すると、統合ランタイムはマネージド仮想ネットワークと共にプロビジョニングされます。プライベート エンドポイントを使用して、サポートされているデータ ストアに安全に接続します。</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC) を使用して、組み込みのロール割り当てを通じて Azure リソースへのアクセスを管理します。Azure RBAC ロールは、ユーザー、グループ、サービス プリンシパル、マネージド ID に割り当てることができます。</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -1906,12 +1902,16 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="n"/>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/event-hubs/authorize-access-azure-active-directory</t>
+        </is>
+      </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>1193846d-697c-4c39-8ed1-6b2d186f0a12</t>
+          <t>387e5ced-127d-4d14-8b06-b20c6999a646</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1922,18 +1922,18 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>マネージド プライベート エンドポイントを構成して、マネージド Azure IR を使用してリソースに接続する</t>
+          <t>ワークスペースのカスタマー マネージド キーを使用した保存時のデータ暗号化</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>マネージド プライベート エンドポイントは、Azure リソースへのプライベート リンクを確立する Data Factory マネージド仮想ネットワークで作成されたプライベート エンドポイントです。Data Factory は、ユーザーに代わってこれらのプライベート エンドポイントを管理します。</t>
+          <t>暗号化の最初のレイヤーは Microsoft マネージド キーによって行われますが、カスタマー マネージド キーを使用して 2 番目の暗号化レイヤーを追加できます</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -1949,14 +1949,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/managed-virtual-network-private-endpoint#managed-private-endpoints</t>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/security/workspaces-encryption</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>41bddde6-8a47-47cd-bb48-61bc3bc10ae6</t>
+          <t>e337897e-31b6-47d6-9be5-962a1193846d</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1965,16 +1965,20 @@
       <c r="P28" s="25" t="n"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="21" t="inlineStr"/>
+      <c r="A29" s="21" t="inlineStr">
+        <is>
+          <t>ネットワーキング</t>
+        </is>
+      </c>
       <c r="B29" s="21" t="inlineStr"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>顧客の Vnet とデータ ファクトリのソースに接続するように Private Link を構成する</t>
+          <t>パブリックネットワークアクセスの無効化</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Azure Private Link を使用すると、プライベート エンドポイントを介して Azure のさまざまなサービスとしてのプラットフォーム (PaaS) デプロイに接続できます。プライベート エンドポイントは、特定の仮想ネットワークとサブネット内のプライベート IP アドレスです</t>
+          <t>サービスでは、サービス レベルの IP ACL フィルタリング規則 (NSG や Azure Firewall ではない) を使用するか、"パブリック ネットワーク アクセスを無効にする" トグル スイッチを使用して、パブリック ネットワーク アクセスを無効にすることがサポートされています。</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -1988,16 +1992,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/data-factory-private-link</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>b47a393a-0804-4272-a479-8b1578b219a4</t>
+          <t>f3389a7e-42c7-48e7-ac06-a62a2194956e</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2014,12 +2014,12 @@
       <c r="B30" s="21" t="inlineStr"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Microsoft マネージド キーによる保存時のデータ暗号化</t>
+          <t>転送中のデータ暗号化</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>これはデフォルト設定です</t>
+          <t>Azure Synapse は TLS を利用して、移動中のデータが暗号化されるようにします。SQL 専用プールでは、暗号化のために TLS 1.0、TLS 1.1、TLS 1.2 バージョンがサポートされています。このバージョンでは、Microsoft が提供するドライバーでは既定で TLS 1.2 が使用されます。サーバーレス SQL プールと Apache Spark プールでは、すべての送信接続に TLS 1.2 が使用されます。</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
@@ -2033,12 +2033,16 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/synapse-analytics/guidance/security-white-paper-data-protection#data-in-transit</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>6ceb5443-5135-4922-9442-93bb628637a5</t>
+          <t>697cc391-ed16-4b2d-886f-0a1241bddde6</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2049,20 +2053,16 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Microsoft マネージド キーによる転送中のデータ暗号化</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>これはデフォルト設定です</t>
-        </is>
-      </c>
+          <t>Vnets を使用して、制限されたネットワーク上のトラフィックを分離する</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2079,7 +2079,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>5119b08e-8f58-4543-a7e9-cec166cd072a</t>
+          <t>6a8dc4a2-fe27-4b2e-8870-1a1352beedf7</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2096,17 +2096,17 @@
       <c r="B32" s="21" t="inlineStr"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>BYOK (カスタマー マネージド キー) による転送中のデータ暗号化</t>
+          <t>パスワード、セキュリティ、キーを Azure Key Vault に格納する</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>カスタマー マネージド キーを指定すると、Data Factory はファクトリ システム キーと CMK の両方を使用して顧客データを暗号化します。どちらかが欠落していると、データとファクトリへのアクセスが拒否されます。</t>
+          <t>Keyvaults を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2115,17 +2115,13 @@
         </is>
       </c>
       <c r="G32" s="21" t="n"/>
-      <c r="H32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/data-factory/enable-customer-managed-key</t>
-        </is>
-      </c>
+      <c r="H32" s="15" t="n"/>
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f9b241a9-98a5-435e-9378-97e71ca7da8c</t>
+          <t>8a477cde-b486-41bc-9bc1-0ae66e25e4d5</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2136,19 +2132,19 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>パスワードとシークレットを Azure Key Vault に格納する</t>
+          <t>Private Link 機能をサポートするすべての Azure リソースにプライベート エンドポイントをデプロイして、リソースのプライベート アクセス ポイントを確立します。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2159,7 +2155,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/store-credentials-in-key-vault, https:/learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+          <t>https://learn.microsoft.com/azure/event-hubs/private-link-service</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2167,7 +2163,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>faa62a15-9495-46da-a7dc-3a23267b2258</t>
+          <t>9b488dee-c496-42cc-9cd2-1bf77f26e5e6</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2176,11 +2172,7 @@
       <c r="P33" s="25" t="n"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="21" t="inlineStr">
-        <is>
-          <t>データ保護</t>
-        </is>
-      </c>
+      <c r="A34" s="21" t="inlineStr"/>
       <c r="B34" s="21" t="inlineStr"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
@@ -2213,7 +2205,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>6f4a1652-bddd-4ea8-a487-cdec4861bc3b</t>
+          <t>a3aec2c4-e243-46b0-936d-b55e17960eee</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2230,12 +2222,12 @@
       <c r="B35" s="21" t="inlineStr"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Azure Data Factory の SHIR データ ストアを使用してオンプレミスの資格情報を暗号化する</t>
+          <t>ワークスペース ロールを使用して、データに対するアクセス権をユーザーに付与します</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスのデータ ストア (機密情報を含むリンクされたサービス) の資格情報を暗号化して、セルフホステッド統合ランタイムを備えたマシンに格納できます。</t>
+          <t>Fabric は、ワークスペースを使用してデータ アクセスを制御します。ワークスペースでは、データは Fabric アイテムの形式で表示され、ワークスペースへのアクセス権を付与しない限り、ユーザーはアイテム (データ) を表示または使用できません。ワークスペースとアイテムのアクセス許可の詳細については、「アクセス許可モデル」を参照してください。</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2251,7 +2243,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/data-factory/encrypt-credentials-self-hosted-integration-runtime</t>
+          <t>https://learn.microsoft.com/fabric/security/permission-model</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2259,7 +2251,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>c14aeb7e-66e8-4d9a-9bec-218e6436b173</t>
+          <t>b3bed3d5-f353-47c1-946d-c56028a71ffe</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2270,16 +2262,20 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>コントロール プレーンとデータ プレーンで Microsoft Purview を管理するためのロールと責任を定義する</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="n"/>
+          <t>Onelake で RBAC を使用して、Onelake のテーブル/ファイル内のデータに対するきめ細かなアクセスを提供します</t>
+        </is>
+      </c>
+      <c r="D36" s="21" t="inlineStr">
+        <is>
+          <t>OneLake RBAC は、ロールの割り当てを使用して、メンバーにアクセス許可を適用します。</t>
+        </is>
+      </c>
       <c r="E36" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2291,13 +2287,17 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="n"/>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/onelake/security/data-access-control-model</t>
+        </is>
+      </c>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>1bd05dd2-e0d5-4d77-8d41-e3611cc57b4a</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2308,18 +2308,18 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Azure サブスクリプション (コントロール プレーン) 内で Microsoft Purview をデプロイおよび管理するために必要なロールとタスクを定義する</t>
+          <t>ショートカットを使用する場合、ユーザーのユーザー ID は、ショートカットのターゲットの場所にもアクセスできる必要があります</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>これには Azure RBAC を使用します</t>
+          <t>ショートカットのターゲットとソースの両方の場所でのユーザーのアクセスを考慮に入れます</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2335,15 +2335,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
-        </is>
-      </c>
-      <c r="I37" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/onelake/security/data-access-control-model#shortcuts</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>8126504b-b47a-4393-a080-427294798b15</t>
+          <t>4b1410d4-3958-498c-8288-b3c6a57cfc64</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2354,18 +2358,18 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr"/>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Purview を使用してデータ管理とガバナンスを実行するために必要なロールとタスクを定義します。(Data Map と Data Catalog のデータ プレーン。</t>
+          <t>ワークスペース レベルのロールの提供をユーザーに制限し、代わりにアイテムをユーザーのみに共有します</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>これには、Microsoft Purview ロールを使用します。</t>
+          <t>すべてのユーザーがロールを使用してワークスペース全体にアクセスする必要はないため、代わりにワークスペース全体でロールを付与することを制限し、アイテムの共有機能を使用するか、Fabric で権限を管理するユーザーのみにアイテムを共有します</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2381,15 +2385,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/classic-data-governance-permissions#roles,  https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/get-started/share-items</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>78b219a4-6ceb-4544-9513-5922744293bb</t>
+          <t>4451e1a3-d345-43a3-a763-9637a552d5c1</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2400,16 +2408,20 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>個々のユーザーにロールを割り当てるのではなく、Microsoft Entra グループにロールを割り当てます。</t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="n"/>
+          <t>Warehouse と SQL 分析エンドポイントで RLS、CLS、動的データ マスキングを定義することで、データへのアクセスを制限します</t>
+        </is>
+      </c>
+      <c r="D39" s="21" t="inlineStr">
+        <is>
+          <t>RLS、CLS、ダイナミック データ マスキングなどの機能を使用して、SQL ワークロードのデータ セキュリティ要件を強化します。</t>
+        </is>
+      </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2421,13 +2433,21 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="n"/>
-      <c r="I39" s="15" t="n"/>
+      <c r="H39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/data-warehouse/tutorial-row-level-security</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>628637a5-5119-4b08-b8f5-854387e9cec1</t>
+          <t>5e401965-387e-45ce-b127-dd142b06b20c</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2438,16 +2458,20 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory エンタイトルメント管理を使用して、アクセス パッケージを使用してユーザー アクセスを Microsoft Entra グループにマップします。</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="n"/>
+          <t>Power BI のセマンティック モデルで RLS と OLS を定義して、データへのアクセスを制限する</t>
+        </is>
+      </c>
+      <c r="D40" s="21" t="inlineStr">
+        <is>
+          <t>Power BI で RLS や OLS などの機能を使用して、セマンティック モデルでより多くのセキュリティ機能を使用</t>
+        </is>
+      </c>
       <c r="E40" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2461,15 +2485,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/governance/entitlement-management-overview</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="n"/>
+          <t>https://learn.microsoft.com/fabric/security/service-admin-row-level-security</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>66cd072a-f9b2-441a-a98a-535e737897e7</t>
+          <t>6999a646-f338-49a7-b42c-78e78c06a62a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2480,19 +2508,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr"/>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Purview ユーザー (特に、コレクション管理者、データ ソース管理者、データ キュレーターなどの特権ロールを持つユーザー) に対して多要素認証を適用します。</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="n"/>
+          <t>保存データの暗号化</t>
+        </is>
+      </c>
+      <c r="D41" s="21" t="inlineStr">
+        <is>
+          <t>Fabric では、OneLake に格納されているすべてのデータは保存時に暗号化されます</t>
+        </is>
+      </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2502,12 +2534,16 @@
       </c>
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="n"/>
-      <c r="I41" s="15" t="n"/>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>1ca7da8c-faa6-42a1-9949-56da97dc3a23</t>
+          <t>2194956e-6a8d-4c4a-8fe2-7b2e28701a13</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2518,19 +2554,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr"/>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID を使用して、すべてのユーザー、Entra に登録されているセキュリティ グループ、Microsoft Purview のコレクション内のサービス プリンシパルとマネージド ID に認証と承認を提供します</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="n"/>
+          <t>転送中のデータを暗号化する</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft サービス間でパブリック インターネット経由で転送されるデータは、常に少なくとも TLS 1.2 で暗号化されます。Fabric は、可能な限り TLS 1.3 にネゴシエートします。</t>
+        </is>
+      </c>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2540,12 +2580,16 @@
       </c>
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="n"/>
-      <c r="I42" s="15" t="n"/>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>267b2258-6f4a-4165-8bdd-dea8a487cdec</t>
+          <t>52beedf7-9b48-48de-bc49-62cc3cd21bf7</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2562,10 +2606,14 @@
       <c r="B43" s="21" t="inlineStr"/>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>最小特権モデルを定義し、特権アカウントの露出を減らす</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="n"/>
+          <t>必要に応じてローカルユーザーの使用を制限する</t>
+        </is>
+      </c>
+      <c r="D43" s="21" t="inlineStr">
+        <is>
+          <t>データ プレーン アクセスのローカル認証方法の使用を制限します。代わりに、データ プレーン アクセスを制御するための既定の認証方法として Microsoft Entra ID を使用します。</t>
+        </is>
+      </c>
       <c r="E43" s="21" t="inlineStr">
         <is>
           <t>高い</t>
@@ -2583,7 +2631,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>4861bc3b-c14a-4eb7-b66e-8d9a3bec218e</t>
+          <t>0bdf4cc2-efc4-4d76-8c31-d25ffbb47a39</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2594,16 +2642,20 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr"/>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Private Link サービスを使用して、エンドツーエンドのネットワーク分離を有効にします。(Microsoft Purview データ マップ)</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="n"/>
+          <t>Microsoft Entra ID を既定の認証方法として使用する</t>
+        </is>
+      </c>
+      <c r="D44" s="21" t="inlineStr">
+        <is>
+          <t>何もする必要はありません。Fabric に接続するすべての要求は Microsoft Entra ID で認証されるため、ユーザーは会社のオフィスから、自宅での作業中、またはリモートの場所から Fabric に安全に接続できます。</t>
+        </is>
+      </c>
       <c r="E44" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2615,17 +2667,17 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>6436b173-6db5-45f5-9960-3334bdf9cc23</t>
+          <t>7f26e5e6-b3be-4d3d-9f35-37c1346dc560</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2636,16 +2688,20 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr"/>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Purview ファイアウォールを使用して、パブリック アクセスを無効にします。(Microsoft Purview データ マップ)</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="n"/>
+          <t>マネージド ID を使用してサービスに対して認証する</t>
+        </is>
+      </c>
+      <c r="D45" s="21" t="inlineStr">
+        <is>
+          <t>マネージド ID を使用すると、資格情報を管理する必要がなくなります。マネージド ID は、Microsoft Entra 認証をサポートするリソースに接続するときに、サービス インスタンスの ID を提供します。</t>
+        </is>
+      </c>
       <c r="E45" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2659,14 +2715,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access</t>
+          <t>https://learn.microsoft.com/azure/data-factory/data-factory-service-identity</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>418db612-8126-4504-ab47-a393a0804272</t>
+          <t>3a040ed3-2947-498b-8178-a2c5a46ceb54</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2677,16 +2733,20 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr"/>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Azure データ ソースのプライベート エンドポイント、Microsoft Purview プライベート エンドポイント、セルフホステッド ランタイム VM がデプロイされるサブネットのネットワーク セキュリティ グループ (NSG) ルールをデプロイします。(Microsoft Purview データ マップ)</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="n"/>
+          <t>ワークスペース ID を使用してサービスに対して認証する</t>
+        </is>
+      </c>
+      <c r="D46" s="21" t="inlineStr">
+        <is>
+          <t>Fabric ワークスペース ID は、Fabric ワークスペースに関連付けることができる、自動的に管理されるサービス プリンシパルです。ワークスペース ID は、 [マイ ワークスペース] を除く任意のワークスペースのワークスペース設定で作成できます。ワークスペース ID には、ワークスペース共同作成者ロールが自動的に割り当てられ、ワークスペース項目にアクセスできます。 制限事項: 認証方法としてワークスペース ID を使用すると、ショートカットの宛先への書き込みが失敗します。workspace-identity-authentication を使用した接続は、Onelake ショートカットとデータ パイプラインでのみ使用できます。</t>
+        </is>
+      </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2700,7 +2760,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+          <t>https://learn.microsoft.com/fabric/security/workspace-identity</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2708,7 +2768,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>94798b15-78b2-419a-96ce-b54435135922</t>
+          <t>28a71ffe-1bd0-45dd-8e0d-5d771d41e361</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2719,19 +2779,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク検査やネットワーク フィルタリングのための Azure Firewall など、ネットワーク仮想アプライアンスによって管理されるプライベート エンドポイントを使用して Microsoft Purview を実装します。(Microsoft Purview データ マップ)</t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="n"/>
+          <t>高い権限を持つユーザーや管理ユーザーを分離して制限し、MFAと条件付きポリシーを有効にする</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="inlineStr">
+        <is>
+          <t>日常的な管理操作に必要ない場合は、緊急時のみの使用のためにローカル管理者アカウントを無効または制限します。</t>
+        </is>
+      </c>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2740,17 +2804,13 @@
         </is>
       </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/firewall/overview</t>
-        </is>
-      </c>
+      <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>744293bb-6286-437a-9511-9b08e8f58543</t>
+          <t>4350d092-d234-4292-a752-8537a551c5bf</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2761,18 +2821,18 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Purview アカウントのプライベート エンドポイントをデプロイしてセキュリティの別のレイヤーを追加し、仮想ネットワーク内から発信されたクライアント呼び出しのみが Microsoft Purview アカウントにアクセスできるようにします</t>
+          <t>ストレージ アカウントの RBAC ロールをマネージド ID に指定して、接続を成功させます</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>このプライベート エンドポイントは、ポータルのプライベート エンドポイントの前提条件でもあります。プライベート ネットワークを使用して Microsoft Purview ガバナンス ポータルへの接続を有効にするには、Microsoft Purview ポータルのプライベート エンドポイントが必要です。Microsoft Purview では、インジェスト プライベート エンドポイントを使用して、Azure またはオンプレミス環境のデータ ソースをスキャンできます。プライベートエンドポイントの使用に関する制限 https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+          <t>ストレージ アカウントに対する ID のアクセス許可を付与する</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
@@ -2788,14 +2848,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-network</t>
+          <t>https://learn.microsoft.com/fabric/security/workspace-identity-authenticate#step-2-grant-the-identity-permissions-on-the-storage-account</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>87e9cec1-66cd-4072-af9b-241a998a535e</t>
+          <t>1cc57b4a-4b14-410d-9395-898c2288b3c6</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2812,14 +2872,10 @@
       <c r="B49" s="21" t="inlineStr"/>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Purview ファイアウォールを使用してパブリック アクセスをブロックする</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access。確認すべき制限: https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
-        </is>
-      </c>
+          <t>パブリックインターネット経由のアクセスを無効にし、ファイアウォールルールまたは信頼できるサービスルールのいずれかを設定します</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2836,7 +2892,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b7bcdb3b-51eb-42ec-84ed-a6e59d8d9a2e</t>
+          <t>4e4f1854-287d-45cd-a126-cc032af5b1fc</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2847,16 +2903,20 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>ネットワークセキュリティ</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr"/>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク セキュリティ グループを使用して、Azure 仮想ネットワーク内の Azure リソースとの間のネットワーク トラフィックをフィルター処理します</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="n"/>
+          <t>ファイアウォールの内側にあるストレージ アカウントにアクセスするための信頼されたワークスペース アクセスを構成する</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="inlineStr">
+        <is>
+          <t>ワークスペース ID を持つファブリック ワークスペースは、OneLake ショートカットの信頼されたワークスペース アクセスを通じて、ファイアウォール対応の Azure Data Lake Storage Gen2 アカウントに対して安全に読み取りまたは書き込みを行うことができます。</t>
+        </is>
+      </c>
       <c r="E50" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2870,7 +2930,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/private-link/disable-private-endpoint-network-policy, https:/learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+          <t>https://learn.microsoft.com/fabric/security/security-trusted-workspace-access</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -2878,7 +2938,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>db217e67-6abf-4669-aa48-e5a96f2223ec</t>
+          <t>a57cfc64-4451-4e1a-9d34-53a3c7639637</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2889,23 +2949,19 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr"/>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスの vnet の境界を離れることができない機密データがある場合は、企業の vnet 内で SHIR VM を使用してメタデータを抽出することを強くお勧めします</t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-security#apply-security-best-practices-for-self-hosted-runtime-vms</t>
-        </is>
-      </c>
+          <t>企業ネットワークから離れるべきではない機密データを扱っている場合は、vnet に SHIR VM をデプロイします</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2920,7 +2976,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>e8cb1231-8ca5-4017-b158-e3fb3aa3c2de</t>
+          <t>6898a535-e337-4897-b31b-67d67be5962a</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2931,18 +2987,18 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr"/>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Azure RBAC を使用して、ストレージ アカウント (MS によって管理されていない) のアクセスを目的のユーザーのみに制限します。</t>
+          <t>ネットワーク分離が必要な場合は、managed vnet オプションを使用してください</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>メタデータは抽出されて Microsoft Purview Data Map に格納されますが、Purview アカウントにマネージド ストレージ アカウントを使用していない場合は、すべてのユーザーがアクセスできるように公開されているため、適切な RBAC を実装し、データへのアクセスを目的のユーザーのみに制限します。2023 年 12 月 15 日以降にデプロイされたアカウント (または API バージョン 2023-05-01-preview 以降を使用してデプロイされたアカウント) に適用されます</t>
+          <t>マネージド仮想ネットワークは、Microsoft Fabric によって各 Fabric ワークスペースに対して作成および管理される仮想ネットワークです。マネージド仮想ネットワークは、Fabric Spark ワークロードのネットワーク分離を提供するため、コンピューティング クラスターは専用ネットワークにデプロイされ、共有仮想ネットワークの一部ではなくなります。これは、Fabric の Spark ワークロードでのみサポートされます。</t>
         </is>
       </c>
       <c r="E52" s="21" t="inlineStr">
@@ -2956,13 +3012,21 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
-      <c r="I52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-managed-vnets-fabric-overview</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>7f3165c3-a87a-405b-9a20-9949bda47778</t>
+          <t>a552d5c1-5e40-4196-9387-e5ced127dd14</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2973,16 +3037,20 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr"/>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>保存データは、Microsoft マネージド キーによって暗号化されます</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="n"/>
+          <t>マネージド vnet IR を使用して、Azure Integration Runtime のパブリック インターネット経由のアクセスを制限する</t>
+        </is>
+      </c>
+      <c r="D53" s="21" t="inlineStr">
+        <is>
+          <t>Data Factory マネージド仮想ネットワーク内に Azure 統合ランタイムを作成すると、統合ランタイムはマネージド仮想ネットワークと共にプロビジョニングされます。プライベート エンドポイントを使用して、サポートされているデータ ストアに安全に接続します。</t>
+        </is>
+      </c>
       <c r="E53" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2999,7 +3067,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>f24d1167-85c2-4fa5-9c56-a948008be7d7</t>
+          <t>1193846d-697c-4c39-8ed1-6b2d186f0a12</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3010,16 +3078,20 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr"/>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>転送中のデータは TLS 1.3 によって暗号化されます</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="n"/>
+          <t>Azure サービスにアクセスするためのマネージド プライベート エンドポイントの構成</t>
+        </is>
+      </c>
+      <c r="D54" s="21" t="inlineStr">
+        <is>
+          <t>マネージド プライベート エンドポイントは、Fabric Spark ワークロードからデータ ソースへの安全でプライベートなアクセスを可能にする機能です。スターター・プールは、管理対象 PE では使用できません</t>
+        </is>
+      </c>
       <c r="E54" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3031,13 +3103,21 @@
         </is>
       </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
-      <c r="I54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-managed-private-endpoints-overview</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>27f7b9e9-1be1-4f38-aff3-9812bd463cbb</t>
+          <t>6f4a0641-addd-4ea8-a477-cdeb3861bc3b</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3048,19 +3128,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ネットワークセキュリティ</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr"/>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>マネージド ID を使用していない場合、またはパスワードが必要なメソッドを使用しない場合は、常に Azure Key Vault を使用してすべての資格情報を格納します</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="n"/>
+          <t>マネージド プライベート エンドポイントを構成して、マネージド Azure IR を使用してリソースに接続する</t>
+        </is>
+      </c>
+      <c r="D55" s="21" t="inlineStr">
+        <is>
+          <t>マネージド プライベート エンドポイントは、Azure リソースへのプライベート リンクを確立する Data Factory マネージド仮想ネットワークで作成されたプライベート エンドポイントです。Data Factory は、ユーザーに代わってこれらのプライベート エンドポイントを管理します。</t>
+        </is>
+      </c>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3069,12 +3153,16 @@
         </is>
       </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/managed-virtual-network-private-endpoint#managed-private-endpoints</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>bc8ac199-ebb9-41a4-9d90-dae2cc881370</t>
+          <t>41bddde6-8a47-47cd-bb48-61bc3bc10ae6</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3085,16 +3173,20 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>誤削除に対する保護</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr"/>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>リソース ロックを適用して Microsoft Purview アカウントの誤削除を防ぐ</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="n"/>
+          <t>Private Link を構成して、独自の Azure vnet 内のリソース (Fabric 環境に来るトラフィック) にアクセスします</t>
+        </is>
+      </c>
+      <c r="D56" s="21" t="inlineStr">
+        <is>
+          <t>Fabric は、仮想ネットワークのプライベート IP アドレスを使用します。このエンドポイントにより、ネットワーク内のユーザーは、プライベートリンクを使用してプライベートIPアドレスを介してFabricと通信できます。</t>
+        </is>
+      </c>
       <c r="E56" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3106,12 +3198,21 @@
         </is>
       </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-private-links-use</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>6f7c0cba-fe61-4465-add4-57e927139b82</t>
+          <t>c14aea6e-65d8-4d9a-9aec-218e6436b063</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3120,16 +3221,20 @@
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="inlineStr"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>ネットワーキング</t>
+        </is>
+      </c>
       <c r="B57" s="21" t="inlineStr"/>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>テナント全体のアカウント ロックアウトを防ぐために、Microsoft Entra テナント、Azure サブスクリプション、Microsoft Purview アカウントの非常用戦略を計画します。</t>
+          <t>ユーザーが Fabric 環境にアクセスしようとしている場合に Microsoft Entra ID の条件付きアクセスを構成する</t>
         </is>
       </c>
       <c r="D57" s="21" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/purview/concept-best-practices-collections#design-recommendations</t>
+          <t>ユーザーの認証を受けるタイミングは、IP アドレス、場所、管理対象デバイスなどの一連のポリシーに基づいて決定されます。</t>
         </is>
       </c>
       <c r="E57" s="21" t="inlineStr">
@@ -3145,14 +3250,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access</t>
+          <t>https://learn.microsoft.com/fabric/security/security-conditional-access</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>1102cac6-eae0-41e6-b842-e52f4722d928</t>
+          <t>6cb45e57-9603-4324-adf8-cc23318da611</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3163,16 +3273,20 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>追加のセキュリティに関する推奨事項</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr"/>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 365 および Microsoft Defender for Cloud と統合する</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="n"/>
+          <t>Azure サービス タグを使用して、Microsoft Fabric との間の接続を有効にすることができます。</t>
+        </is>
+      </c>
+      <c r="D58" s="21" t="inlineStr">
+        <is>
+          <t>Azure では、サービス タグは定義された IP アドレスのグループであり、ネットワーク セキュリティ規則の更新や変更の複雑さを最小限に抑えるために、グループとして自動的に管理されます。</t>
+        </is>
+      </c>
       <c r="E58" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3184,12 +3298,21 @@
         </is>
       </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/security-service-tags</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd23-7dd142b16c21</t>
+          <t>70265f4b-b46a-4393-af70-317294797b15</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3200,23 +3323,23 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr"/>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>最小特権モデルを定義し、特権アカウントの露出を減らす</t>
+          <t>Fabric URL を許可リストに追加できます</t>
         </is>
       </c>
       <c r="D59" s="21" t="inlineStr">
         <is>
-          <t>管理者アカウントを通常のユーザーアカウントから分離します。</t>
+          <t>随意</t>
         </is>
       </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3225,12 +3348,21 @@
         </is>
       </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fabric/security/fabric-allow-list-urls</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>78a219a4-6beb-4544-9502-4922634292bb</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3241,23 +3373,23 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr"/>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>シングルサインオンと統合ログインを設定します。多要素認証を有効にします。</t>
+          <t>Power BI の URL を許可リストに追加できます</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t>Azure Databricks では Microsoft Entra ID の条件付きアクセスがサポートされているため、管理者はユーザーが Azure Databricks にサインインできる場所とタイミングを制御できます。条件付きアクセス ポリシーでは、企業ネットワークへのサインインを制限したり、多要素認証 (MFA) を要求したりできます。</t>
+          <t>随意</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3268,14 +3400,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/auth/#single-sign-on</t>
+          <t>https://learn.microsoft.com/fabric/security/power-bi-allow-list-urls</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>528537a5-4119-4bf8-b8f5-854287d9cdc1</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3286,18 +3423,18 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>ネットワーキング</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr"/>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>トークン管理を使用します。</t>
+          <t>オンプレミス データ ゲートウェイまたは Vnet データ ゲートウェイを構成して使用し、オンプレミスまたは仮想ネットワークの背後にあるソースに接続する</t>
         </is>
       </c>
       <c r="D61" s="21" t="inlineStr">
         <is>
-          <t>お客様は、トークン管理 API または UI コントロールを使用して、REST API 認証のパーソナル アクセス トークン (PAT) を有効または無効にしたり、PAT を使用できるユーザーの制限を行ったり、新しいトークンの最大有効期間を設定したり、既存のトークンを管理したりできます。安全性の高いお客様は、通常、ワークスペースの新しいトークンに対してトークンの最大有効期間をプロビジョニングします。この機能には、Premium 価格レベルが必要です。</t>
+          <t>データ ゲートウェイを使用すると、Azure やその他のデータ サービスを Microsoft Fabric と Power Platform に接続して、データ ソースと安全に通信し、クエリを実行し、結果をサービスに送信できます。</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -3313,14 +3450,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/access-control/tokens</t>
+          <t>https://learn.microsoft.com/data-integration/gateway/service-gateway-install</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc5-972cd4cd21b0</t>
+          <t>56cc071a-e9b1-441a-a889-535e727897e7</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3329,25 +3466,21 @@
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="inlineStr">
-        <is>
-          <t>ID およびアクセス管理</t>
-        </is>
-      </c>
+      <c r="A62" s="21" t="inlineStr"/>
       <c r="B62" s="21" t="inlineStr"/>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>管理者アカウントを通常のユーザーアカウントから分離する</t>
+          <t>顧客の Vnet とデータ ファクトリのソースに接続するように Private Link を構成する</t>
         </is>
       </c>
       <c r="D62" s="21" t="inlineStr">
         <is>
-          <t>Databricks プラットフォームの通常のユーザーでもある Databricks 管理者がいる場合 (たとえば、プラットフォームを管理し、データ エンジニアリング作業も行うリード データ エンジニアがいる場合)、Databricks では管理タスク用に別のアカウントを作成することをお勧めします。Azure RBAC モデルの一部として、デプロイされた Azure Databricks ワークスペースのリソース グループに対する共同作成者以上のアクセス許可を付与されたユーザーは、そのワークスペースにログインすると自動的に管理者になることに注意してください。したがって、上記で説明したのと同じ考慮事項を Azure portal ユーザーにも適用する必要があります。</t>
+          <t>Azure Private Link を使用すると、プライベート エンドポイントを介して Azure のさまざまなサービスとしてのプラットフォーム (PaaS) デプロイに接続できます。プライベート エンドポイントは、特定の仮想ネットワークとサブネット内のプライベート IP アドレスです</t>
         </is>
       </c>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3356,12 +3489,16 @@
         </is>
       </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="n"/>
+      <c r="H62" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/data-factory-private-link</t>
+        </is>
+      </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4fd3-b503-547c1447dc56</t>
+          <t>b47a393a-0804-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3372,18 +3509,18 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr"/>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>ユーザーとグループの SCIM 同期。</t>
+          <t>Microsoft マネージド キーによる保存時のデータ暗号化</t>
         </is>
       </c>
       <c r="D63" s="21" t="inlineStr">
         <is>
-          <t>SCIM (System for Cross-domain Identity Management) を使用すると、ユーザーとグループを Microsoft Entra ID から Azure Databricks に同期できます。このアプローチには、主に 3 つの利点があります: 1. ユーザーを削除すると、そのユーザーは Databricks から自動的に削除されます。2. ユーザーは、SCIMを介して一時的に無効にすることもできます。お客様は、アカウントが侵害された可能性があり、調査する必要があるとお客様が考えるシナリオで、この機能を使用しています 3.グループは自動的に同期されます Azure Databricks の SCIM を構成する方法の詳細については、ドキュメントを参照してください。この機能には Premium 価格レベルが必要です</t>
+          <t>これはデフォルト設定です</t>
         </is>
       </c>
       <c r="E63" s="21" t="inlineStr">
@@ -3397,17 +3534,13 @@
         </is>
       </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/users-groups/scim/</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>028a71ff-f1ce-415d-b3f0-d5e872d42e36</t>
+          <t>6ceb5443-5135-4922-9442-93bb628637a5</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3418,18 +3551,18 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr"/>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>クラスターの作成権限を制限します。</t>
+          <t>Microsoft マネージド キーによる転送中のデータ暗号化</t>
         </is>
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t>管理者は、クラスターポリシーまたは古いクラスター ACL を使用して、組織内のどのユーザーまたはグループがクラスターを作成できるかを定義できます。クラスター ACL を使用すると、特定のクラスターにノートブックをアタッチできるユーザーを指定できます。ユーザーが標準モードのクラスターに既にアタッチされているノートブックを共有している場合、受信者もそのクラスターでコードを実行できることに注意してください。これは、ユーザーの分離を強制するクラスター (SQL ウェアハウス、テーブル ACL クラスターによる高いコンカレンシー、資格情報パススルー クラスターによる高いコンカレンシー) には適用されません。Unity Catalog を使用しているお客様は、シングルユーザー クラスターを有効にして、分離クラスターを適用することもできます。</t>
+          <t>これはデフォルト設定です</t>
         </is>
       </c>
       <c r="E64" s="21" t="inlineStr">
@@ -3449,7 +3582,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b43a-58a9c2289b3d</t>
+          <t>5119b08e-8f58-4543-a7e9-cec166cd072a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3458,21 +3591,25 @@
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="inlineStr"/>
+      <c r="A65" s="21" t="inlineStr">
+        <is>
+          <t>データ保護</t>
+        </is>
+      </c>
       <c r="B65" s="21" t="inlineStr"/>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>ワークスペース管理者を制限する</t>
+          <t>BYOK (カスタマー マネージド キー) による転送中のデータ暗号化</t>
         </is>
       </c>
       <c r="D65" s="21" t="inlineStr">
         <is>
-          <t>アカウント管理者は、RestrictWorkspaceAdmins というワークスペース設定を構成して、ワークスペース管理者がジョブ所有者を自分自身に変更し、ジョブ実行設定をサービス プリンシパル ユーザー ロールを持つサービス プリンシパルに変更するように制限できます。</t>
+          <t>カスタマー マネージド キーを指定すると、Data Factory はファクトリ システム キーと CMK の両方を使用して顧客データを暗号化します。どちらかが欠落していると、データとファクトリへのアクセスが拒否されます。</t>
         </is>
       </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3483,7 +3620,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/admin/workspace-settings/restrict-workspace-admins</t>
+          <t>https://learn.microsoft.com/azure/data-factory/enable-customer-managed-key</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3491,7 +3628,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>6b57dfc6-5546-41e1-a3e3-453a3c863964</t>
+          <t>f9b241a9-98a5-435e-9378-97e71ca7da8c</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3502,7 +3639,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr"/>
@@ -3511,11 +3648,7 @@
           <t>パスワードとシークレットを Azure Key Vault に格納する</t>
         </is>
       </c>
-      <c r="D66" s="21" t="inlineStr">
-        <is>
-          <t>お客様が Azure Key Vault を使用してシークレットを格納する場合でも、アクセス制御は Azure Databricks 内で定義する必要があることに注意することが重要です。これは、同じサービス ID を使用して、Azure Databricks ワークスペースのすべてのユーザーのシークレットが取得されるためです。</t>
-        </is>
-      </c>
+      <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
           <t>高い</t>
@@ -3527,12 +3660,16 @@
         </is>
       </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="n"/>
+      <c r="H66" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/store-credentials-in-key-vault, https:/learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+        </is>
+      </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>8b662d6c-15f5-4129-9539-8e6ded237dd1</t>
+          <t>faa62a15-9495-46da-a7dc-3a23267b2258</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3541,17 +3678,25 @@
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="inlineStr"/>
+      <c r="A67" s="21" t="inlineStr">
+        <is>
+          <t>データ保護</t>
+        </is>
+      </c>
       <c r="B67" s="21" t="inlineStr"/>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>キーを定期的に使用する場合は、キーを再生成/ローテーションします</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="n"/>
+          <t>パイプライン アクティビティで Azure Key Vault シークレットを使用する</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="inlineStr">
+        <is>
+          <t>資格情報またはシークレット値を Azure Key Vault に格納し、パイプラインの実行中にそれらを使用してアクティビティに渡すことができます。</t>
+        </is>
+      </c>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3560,13 +3705,17 @@
         </is>
       </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="n"/>
+      <c r="H67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/how-to-use-azure-key-vault-secrets-pipeline-activities</t>
+        </is>
+      </c>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>42b16c21-d799-49a6-96f4-389a8f42c78e</t>
+          <t>6f4a1652-bddd-4ea8-a487-cdec4861bc3b</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3577,18 +3726,18 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr"/>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>ユーザーの分離をサポートするクラスターを使用します。</t>
+          <t>Azure Data Factory の SHIR データ ストアを使用してオンプレミスの資格情報を暗号化する</t>
         </is>
       </c>
       <c r="D68" s="21" t="inlineStr">
         <is>
-          <t>ユーザー分離が設定されたクラスターには、各ユーザーがクラスター ホスト上で異なる非特権ユーザー アカウントとして実行されるような強制が含まれます。また、言語は分離された方法で実装できる言語 (SQL と Python) に限定されており、Spark API は分離セーフであると思われる言語の許可リストに含まれている必要があります。</t>
+          <t>オンプレミスのデータ ストア (機密情報を含むリンクされたサービス) の資格情報を暗号化して、セルフホステッド統合ランタイムを備えたマシンに格納できます。</t>
         </is>
       </c>
       <c r="E68" s="21" t="inlineStr">
@@ -3602,13 +3751,17 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/data-factory/encrypt-credentials-self-hosted-integration-runtime</t>
+        </is>
+      </c>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>78c06a73-a22a-4495-9e7a-8dc4a20e27c3</t>
+          <t>c14aeb7e-66e8-4d9a-9bec-218e6436b173</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3625,14 +3778,10 @@
       <c r="B69" s="21" t="inlineStr"/>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>サービス プリンシパルを使用して、運用ジョブを実行します。ワークスペース レベル (ACL)、アカウント レベル (RBAC)、データ レベル (Unity カタログ) のセキュリティ制御に適切なアクセス制御を使用する</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="inlineStr">
-        <is>
-          <t>運用ワークロードを個々のユーザー アカウントに関連付けることはセキュリティのベスト プラクティスに反するため、Databricks 内でサービス プリンシパルを構成することをお勧めします。サービス原則は、管理者とユーザーのアクションをワークロードから分離し、ユーザーが組織を離れた場合にワークロードが影響を受けるのを防ぎます。Databricks を使用すると、ジョブをサービス プリンシパルとして実行するように構成し、サービス プリンシパルの個人用アクセス トークンを生成できます。</t>
-        </is>
-      </c>
+          <t>コントロール プレーンとデータ プレーンで Microsoft Purview を管理するためのロールと責任を定義する</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3644,17 +3793,13 @@
         </is>
       </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/auth/access-control/</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e29711b1-352b-4eee-879b-588defc5972c</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3665,23 +3810,23 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr"/>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>運用データを DBFS に格納しないでください。</t>
+          <t>Azure サブスクリプション (コントロール プレーン) 内で Microsoft Purview をデプロイおよび管理するために必要なロールとタスクを定義する</t>
         </is>
       </c>
       <c r="D70" s="21" t="inlineStr">
         <is>
-          <t>デフォルトでは、DBFSは、特定のワークスペースのすべてのユーザーがアクセスでき、APIを介してアクセスできるファイルシステムです。IP アクセス リストまたはプライベート ネットワーク アクセスを使用して、DBFS API または Databricks cli を介したデータへのアクセスを制限できるため、これは必ずしもデータ流出の大きな懸念事項ではありません。ただし、Azure Databricks の使用が拡大し、ワークスペースに参加するユーザーが増えると、それらのユーザーは DBFS に格納されている任意のデータにアクセスできるようになり、望ましくない情報共有が発生する可能性があります。Databricks では、お客様が運用データを DBFS に保存しないことをお勧めします。</t>
+          <t>これには Azure RBAC を使用します</t>
         </is>
       </c>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3690,13 +3835,17 @@
         </is>
       </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="n"/>
+      <c r="H70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
+        </is>
+      </c>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-7703-46e5-b6b4-bfd3d503547c</t>
+          <t>8126504b-b47a-4393-a080-427294798b15</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3707,18 +3856,18 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr"/>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>ストレージを暗号化し、アクセスを制限します。</t>
+          <t>Microsoft Purview を使用してデータ管理とガバナンスを実行するために必要なロールとタスクを定義します。(Data Map と Data Catalog のデータ プレーン。</t>
         </is>
       </c>
       <c r="D71" s="21" t="inlineStr">
         <is>
-          <t>管理するストレージ アカウントについては、要件に従ってストレージ アカウントが保護されていることを確認するのは、ユーザーの責任です。例としては、カスタマー マネージド キーによる暗号化、ストレージ ファイアウォールによる信頼できるネットワークへのアクセスの制限、匿名のパブリック アクセスは許可されないなどがあります</t>
+          <t>これには、Microsoft Purview ロールを使用します。</t>
         </is>
       </c>
       <c r="E71" s="21" t="inlineStr">
@@ -3734,7 +3883,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+          <t>https://learn.microsoft.com/purview/classic-data-governance-permissions#roles,  https://learn.microsoft.com/azure/role-based-access-control/best-practices</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3742,7 +3891,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>1447dc56-028a-471f-bf1c-e15dd3f0d5e8</t>
+          <t>78b219a4-6ceb-4544-9513-5922744293bb</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3753,20 +3902,16 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr"/>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>マネージド サービスとワークスペース ストレージのカスタマー マネージド キーを追加する</t>
-        </is>
-      </c>
-      <c r="D72" s="21" t="inlineStr">
-        <is>
-          <t>Azure Databricks コントロール プレーン内に格納されている選択データ (ノートブック、シークレット、Databricks SQL クエリ、Databricks SQL クエリ履歴など) と、DBFS に使用されるルート ストレージ アカウントに対して、カスタマー マネージド キーを追加します。Azure Databricks では、継続的な操作のためにこのキーにアクセスする必要があります。キーへのアクセスを取り消すと、Azure Databricks がコントロール プレーン内 (またはバックアップ内) の暗号化データにアクセスできないようにすることができます。これは、ワークスペースが機能しなくなる核オプションのようなものですが、極端な状況に対する緊急制御を提供します。この機能には、Premium 価格レベルが必要です。</t>
-        </is>
-      </c>
+          <t>個々のユーザーにロールを割り当てるのではなく、Microsoft Entra グループにロールを割り当てます。</t>
+        </is>
+      </c>
+      <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3778,17 +3923,13 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>72d42e36-11cc-457b-9a4b-1410e43a58a9</t>
+          <t>628637a5-5119-4b08-b8f5-854387e9cec1</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3799,20 +3940,16 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr"/>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>IP アクセス リストを有効にして、特定の IP アドレスへのアクセスを制限します。</t>
-        </is>
-      </c>
-      <c r="D73" s="21" t="inlineStr">
-        <is>
-          <t>アカウント コンソールとワークスペース レベルで Databricks に対して認証できる IP アドレスを制限する IP アクセス リストを構成するには、ユーザーまたは API クライアントが VPN やオフィス ネットワークなどの既知の良好な IP アドレス範囲から来ているかどうかを確認します。確立されたユーザーセッションは、VPNから切断するときなど、ユーザーが不正なIPアドレスに移動した場合、機能しません。</t>
-        </is>
-      </c>
+          <t>Azure Active Directory エンタイトルメント管理を使用して、アクセス パッケージを使用してユーザー アクセスを Microsoft Entra グループにマップします。</t>
+        </is>
+      </c>
+      <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3826,7 +3963,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/network/front-end/ip-access-list</t>
+          <t>https://learn.microsoft.com/azure/active-directory/governance/entitlement-management-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -3834,7 +3971,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>277de183-b1ac-4252-a9a9-b64608489a8f</t>
+          <t>66cd072a-f9b2-441a-a98a-535e737897e7</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -3845,23 +3982,19 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>ネットワーキング</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr"/>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Azure Private Link を構成して使用し、Azure リソースにアクセスします。</t>
-        </is>
-      </c>
-      <c r="D74" s="21" t="inlineStr">
-        <is>
-          <t>Azure Private Link は、ある Azure 環境から別の Azure 環境へのプライベート ネットワーク ルートを提供します。Private Link は、Azure Databricks ユーザーとコントロール プレーンの間、およびコントロール プレーンとデータ プレーンの間の両方で構成できます。Databricks ユーザーとコントロール プレーンの間では、Private Link は受信要求のソースを制限する強力な制御を提供します。企業が既に Azure 環境経由でトラフィックをルーティングしている場合は、Private Link を使用して、ユーザーと Azure Databricks コントロール プレーン間の通信がパブリック IP アドレスを経由しないようにすることができます。この機能には、Premium 価格レベルが必要です。Azure Private Link を使用して、Azure Databricks から Azure リソースに接続します。Private Link は、</t>
-        </is>
-      </c>
+          <t>Microsoft Purview ユーザー (特に、コレクション管理者、データ ソース管理者、データ キュレーターなどの特権ロールを持つユーザー) に対して多要素認証を適用します。</t>
+        </is>
+      </c>
+      <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3870,17 +4003,13 @@
         </is>
       </c>
       <c r="G74" s="21" t="n"/>
-      <c r="H74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/databricks/security/network/classic/private-link</t>
-        </is>
-      </c>
+      <c r="H74" s="15" t="n"/>
       <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>82db8eb9-d1ba-473b-86a5-a57eba8dd4b3</t>
+          <t>1ca7da8c-faa6-42a1-9949-56da97dc3a23</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -3889,561 +4018,1386 @@
       <c r="P74" s="25" t="n"/>
     </row>
     <row r="75" ht="16.5" customHeight="1">
-      <c r="A75" s="21" t="n"/>
-      <c r="B75" s="21" t="n"/>
-      <c r="C75" s="21" t="n"/>
+      <c r="A75" s="21" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
+      <c r="B75" s="21" t="inlineStr"/>
+      <c r="C75" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Entra ID を使用して、すべてのユーザー、Entra に登録されているセキュリティ グループ、Microsoft Purview のコレクション内のサービス プリンシパルとマネージド ID に認証と承認を提供します</t>
+        </is>
+      </c>
       <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="n"/>
       <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
-      <c r="L75" s="25" t="n"/>
+      <c r="L75" s="25" t="inlineStr">
+        <is>
+          <t>267b2258-6f4a-4165-8bdd-dea8a487cdec</t>
+        </is>
+      </c>
       <c r="M75" s="25" t="n"/>
       <c r="N75" s="25" t="n"/>
       <c r="O75" s="25" t="n"/>
       <c r="P75" s="25" t="n"/>
     </row>
     <row r="76" ht="16.5" customHeight="1">
-      <c r="A76" s="21" t="n"/>
-      <c r="B76" s="21" t="n"/>
-      <c r="C76" s="21" t="n"/>
+      <c r="A76" s="21" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
+      <c r="B76" s="21" t="inlineStr"/>
+      <c r="C76" s="21" t="inlineStr">
+        <is>
+          <t>最小特権モデルを定義し、特権アカウントの露出を減らす</t>
+        </is>
+      </c>
       <c r="D76" s="21" t="n"/>
-      <c r="E76" s="21" t="n"/>
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
-      <c r="L76" s="25" t="n"/>
+      <c r="L76" s="25" t="inlineStr">
+        <is>
+          <t>4861bc3b-c14a-4eb7-b66e-8d9a3bec218e</t>
+        </is>
+      </c>
       <c r="M76" s="25" t="n"/>
       <c r="N76" s="25" t="n"/>
       <c r="O76" s="25" t="n"/>
       <c r="P76" s="25" t="n"/>
     </row>
     <row r="77" ht="16.5" customHeight="1">
-      <c r="A77" s="21" t="n"/>
-      <c r="B77" s="21" t="n"/>
-      <c r="C77" s="21" t="n"/>
+      <c r="A77" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークセキュリティ</t>
+        </is>
+      </c>
+      <c r="B77" s="21" t="inlineStr"/>
+      <c r="C77" s="21" t="inlineStr">
+        <is>
+          <t>Private Link サービスを使用して、エンドツーエンドのネットワーク分離を有効にします。(Microsoft Purview データ マップ)</t>
+        </is>
+      </c>
       <c r="D77" s="21" t="n"/>
-      <c r="E77" s="21" t="n"/>
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="n"/>
+      <c r="H77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end</t>
+        </is>
+      </c>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
-      <c r="L77" s="25" t="n"/>
+      <c r="L77" s="25" t="inlineStr">
+        <is>
+          <t>6436b173-6db5-45f5-9960-3334bdf9cc23</t>
+        </is>
+      </c>
       <c r="M77" s="25" t="n"/>
       <c r="N77" s="25" t="n"/>
       <c r="O77" s="25" t="n"/>
       <c r="P77" s="25" t="n"/>
     </row>
     <row r="78" ht="16.5" customHeight="1">
-      <c r="A78" s="21" t="n"/>
-      <c r="B78" s="21" t="n"/>
-      <c r="C78" s="21" t="n"/>
+      <c r="A78" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークセキュリティ</t>
+        </is>
+      </c>
+      <c r="B78" s="21" t="inlineStr"/>
+      <c r="C78" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Purview ファイアウォールを使用して、パブリック アクセスを無効にします。(Microsoft Purview データ マップ)</t>
+        </is>
+      </c>
       <c r="D78" s="21" t="n"/>
-      <c r="E78" s="21" t="n"/>
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G78" s="21" t="n"/>
-      <c r="H78" s="15" t="n"/>
+      <c r="H78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access</t>
+        </is>
+      </c>
       <c r="I78" s="15" t="n"/>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
-      <c r="L78" s="25" t="n"/>
+      <c r="L78" s="25" t="inlineStr">
+        <is>
+          <t>418db612-8126-4504-ab47-a393a0804272</t>
+        </is>
+      </c>
       <c r="M78" s="25" t="n"/>
       <c r="N78" s="25" t="n"/>
       <c r="O78" s="25" t="n"/>
       <c r="P78" s="25" t="n"/>
     </row>
     <row r="79" ht="16.5" customHeight="1">
-      <c r="A79" s="21" t="n"/>
-      <c r="B79" s="21" t="n"/>
-      <c r="C79" s="21" t="n"/>
+      <c r="A79" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークセキュリティ</t>
+        </is>
+      </c>
+      <c r="B79" s="21" t="inlineStr"/>
+      <c r="C79" s="21" t="inlineStr">
+        <is>
+          <t>Azure データ ソースのプライベート エンドポイント、Microsoft Purview プライベート エンドポイント、セルフホステッド ランタイム VM がデプロイされるサブネットのネットワーク セキュリティ グループ (NSG) ルールをデプロイします。(Microsoft Purview データ マップ)</t>
+        </is>
+      </c>
       <c r="D79" s="21" t="n"/>
-      <c r="E79" s="21" t="n"/>
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G79" s="21" t="n"/>
-      <c r="H79" s="15" t="n"/>
+      <c r="H79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+        </is>
+      </c>
       <c r="I79" s="15" t="n"/>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
-      <c r="L79" s="25" t="n"/>
+      <c r="L79" s="25" t="inlineStr">
+        <is>
+          <t>94798b15-78b2-419a-96ce-b54435135922</t>
+        </is>
+      </c>
       <c r="M79" s="25" t="n"/>
       <c r="N79" s="25" t="n"/>
       <c r="O79" s="25" t="n"/>
       <c r="P79" s="25" t="n"/>
     </row>
     <row r="80" ht="16.5" customHeight="1">
-      <c r="A80" s="21" t="n"/>
-      <c r="B80" s="21" t="n"/>
-      <c r="C80" s="21" t="n"/>
+      <c r="A80" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークセキュリティ</t>
+        </is>
+      </c>
+      <c r="B80" s="21" t="inlineStr"/>
+      <c r="C80" s="21" t="inlineStr">
+        <is>
+          <t>ネットワーク検査やネットワーク フィルタリングのための Azure Firewall など、ネットワーク仮想アプライアンスによって管理されるプライベート エンドポイントを使用して Microsoft Purview を実装します。(Microsoft Purview データ マップ)</t>
+        </is>
+      </c>
       <c r="D80" s="21" t="n"/>
-      <c r="E80" s="21" t="n"/>
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G80" s="21" t="n"/>
-      <c r="H80" s="15" t="n"/>
+      <c r="H80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/firewall/overview</t>
+        </is>
+      </c>
       <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
-      <c r="L80" s="25" t="n"/>
+      <c r="L80" s="25" t="inlineStr">
+        <is>
+          <t>744293bb-6286-437a-9511-9b08e8f58543</t>
+        </is>
+      </c>
       <c r="M80" s="25" t="n"/>
       <c r="N80" s="25" t="n"/>
       <c r="O80" s="25" t="n"/>
       <c r="P80" s="25" t="n"/>
     </row>
     <row r="81" ht="16.5" customHeight="1">
-      <c r="A81" s="21" t="n"/>
-      <c r="B81" s="21" t="n"/>
-      <c r="C81" s="21" t="n"/>
-      <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
+      <c r="A81" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークセキュリティ</t>
+        </is>
+      </c>
+      <c r="B81" s="21" t="inlineStr"/>
+      <c r="C81" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Purview アカウントのプライベート エンドポイントをデプロイしてセキュリティの別のレイヤーを追加し、仮想ネットワーク内から発信されたクライアント呼び出しのみが Microsoft Purview アカウントにアクセスできるようにします</t>
+        </is>
+      </c>
+      <c r="D81" s="21" t="inlineStr">
+        <is>
+          <t>このプライベート エンドポイントは、ポータルのプライベート エンドポイントの前提条件でもあります。プライベート ネットワークを使用して Microsoft Purview ガバナンス ポータルへの接続を有効にするには、Microsoft Purview ポータルのプライベート エンドポイントが必要です。Microsoft Purview では、インジェスト プライベート エンドポイントを使用して、Azure またはオンプレミス環境のデータ ソースをスキャンできます。プライベートエンドポイントの使用に関する制限 https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+        </is>
+      </c>
+      <c r="E81" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="n"/>
+      <c r="H81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-network</t>
+        </is>
+      </c>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
-      <c r="L81" s="25" t="n"/>
+      <c r="L81" s="25" t="inlineStr">
+        <is>
+          <t>87e9cec1-66cd-4072-af9b-241a998a535e</t>
+        </is>
+      </c>
       <c r="M81" s="25" t="n"/>
       <c r="N81" s="25" t="n"/>
       <c r="O81" s="25" t="n"/>
       <c r="P81" s="25" t="n"/>
     </row>
     <row r="82" ht="16.5" customHeight="1">
-      <c r="A82" s="21" t="n"/>
-      <c r="B82" s="21" t="n"/>
-      <c r="C82" s="21" t="n"/>
-      <c r="D82" s="21" t="n"/>
-      <c r="E82" s="21" t="n"/>
+      <c r="A82" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークセキュリティ</t>
+        </is>
+      </c>
+      <c r="B82" s="21" t="inlineStr"/>
+      <c r="C82" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Purview ファイアウォールを使用してパブリック アクセスをブロックする</t>
+        </is>
+      </c>
+      <c r="D82" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/catalog-private-link-end-to-end#firewalls-to-restrict-public-access。確認すべき制限: https://learn.microsoft.com/purview/catalog-private-link-troubleshoot</t>
+        </is>
+      </c>
+      <c r="E82" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="n"/>
       <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
-      <c r="L82" s="25" t="n"/>
+      <c r="L82" s="25" t="inlineStr">
+        <is>
+          <t>b7bcdb3b-51eb-42ec-84ed-a6e59d8d9a2e</t>
+        </is>
+      </c>
       <c r="M82" s="25" t="n"/>
       <c r="N82" s="25" t="n"/>
       <c r="O82" s="25" t="n"/>
       <c r="P82" s="25" t="n"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="21" t="n"/>
-      <c r="B83" s="21" t="n"/>
-      <c r="C83" s="21" t="n"/>
+      <c r="A83" s="21" t="inlineStr">
+        <is>
+          <t>ネットワークセキュリティ</t>
+        </is>
+      </c>
+      <c r="B83" s="21" t="inlineStr"/>
+      <c r="C83" s="21" t="inlineStr">
+        <is>
+          <t>ネットワーク セキュリティ グループを使用して、Azure 仮想ネットワーク内の Azure リソースとの間のネットワーク トラフィックをフィルター処理します</t>
+        </is>
+      </c>
       <c r="D83" s="21" t="n"/>
-      <c r="E83" s="21" t="n"/>
+      <c r="E83" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G83" s="21" t="n"/>
-      <c r="H83" s="15" t="n"/>
+      <c r="H83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/private-link/disable-private-endpoint-network-policy, https:/learn.microsoft.com/purview/concept-best-practices-security#use-network-security-groups</t>
+        </is>
+      </c>
       <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
-      <c r="L83" s="25" t="n"/>
+      <c r="L83" s="25" t="inlineStr">
+        <is>
+          <t>db217e67-6abf-4669-aa48-e5a96f2223ec</t>
+        </is>
+      </c>
       <c r="M83" s="25" t="n"/>
       <c r="N83" s="25" t="n"/>
       <c r="O83" s="25" t="n"/>
       <c r="P83" s="25" t="n"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="21" t="n"/>
-      <c r="C84" s="21" t="n"/>
-      <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="A84" s="21" t="inlineStr">
+        <is>
+          <t>データ保護</t>
+        </is>
+      </c>
+      <c r="B84" s="21" t="inlineStr"/>
+      <c r="C84" s="21" t="inlineStr">
+        <is>
+          <t>オンプレミスの vnet の境界を離れることができない機密データがある場合は、企業の vnet 内で SHIR VM を使用してメタデータを抽出することを強くお勧めします</t>
+        </is>
+      </c>
+      <c r="D84" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-security#apply-security-best-practices-for-self-hosted-runtime-vms</t>
+        </is>
+      </c>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="n"/>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
-      <c r="L84" s="25" t="n"/>
+      <c r="L84" s="25" t="inlineStr">
+        <is>
+          <t>e8cb1231-8ca5-4017-b158-e3fb3aa3c2de</t>
+        </is>
+      </c>
       <c r="M84" s="25" t="n"/>
       <c r="N84" s="25" t="n"/>
       <c r="O84" s="25" t="n"/>
       <c r="P84" s="25" t="n"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="21" t="n"/>
-      <c r="C85" s="21" t="n"/>
-      <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="A85" s="21" t="inlineStr">
+        <is>
+          <t>データ保護</t>
+        </is>
+      </c>
+      <c r="B85" s="21" t="inlineStr"/>
+      <c r="C85" s="21" t="inlineStr">
+        <is>
+          <t>Azure RBAC を使用して、ストレージ アカウント (MS によって管理されていない) のアクセスを目的のユーザーのみに制限します。</t>
+        </is>
+      </c>
+      <c r="D85" s="21" t="inlineStr">
+        <is>
+          <t>メタデータは抽出されて Microsoft Purview Data Map に格納されますが、Purview アカウントにマネージド ストレージ アカウントを使用していない場合は、すべてのユーザーがアクセスできるように公開されているため、適切な RBAC を実装し、データへのアクセスを目的のユーザーのみに制限します。2023 年 12 月 15 日以降にデプロイされたアカウント (または API バージョン 2023-05-01-preview 以降を使用してデプロイされたアカウント) に適用されます</t>
+        </is>
+      </c>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="n"/>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
-      <c r="L85" s="25" t="n"/>
+      <c r="L85" s="25" t="inlineStr">
+        <is>
+          <t>7f3165c3-a87a-405b-9a20-9949bda47778</t>
+        </is>
+      </c>
       <c r="M85" s="25" t="n"/>
       <c r="N85" s="25" t="n"/>
       <c r="O85" s="25" t="n"/>
       <c r="P85" s="25" t="n"/>
     </row>
     <row r="86" ht="16.5" customHeight="1">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="21" t="n"/>
-      <c r="C86" s="21" t="n"/>
+      <c r="A86" s="21" t="inlineStr">
+        <is>
+          <t>データ保護</t>
+        </is>
+      </c>
+      <c r="B86" s="21" t="inlineStr"/>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>保存データは、Microsoft マネージド キーによって暗号化されます</t>
+        </is>
+      </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="n"/>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
-      <c r="L86" s="25" t="n"/>
+      <c r="L86" s="25" t="inlineStr">
+        <is>
+          <t>f24d1167-85c2-4fa5-9c56-a948008be7d7</t>
+        </is>
+      </c>
       <c r="M86" s="25" t="n"/>
       <c r="N86" s="25" t="n"/>
       <c r="O86" s="25" t="n"/>
       <c r="P86" s="25" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="21" t="n"/>
-      <c r="C87" s="21" t="n"/>
+      <c r="A87" s="21" t="inlineStr">
+        <is>
+          <t>データ保護</t>
+        </is>
+      </c>
+      <c r="B87" s="21" t="inlineStr"/>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>転送中のデータは TLS 1.3 によって暗号化されます</t>
+        </is>
+      </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="n"/>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
-      <c r="L87" s="25" t="n"/>
+      <c r="L87" s="25" t="inlineStr">
+        <is>
+          <t>27f7b9e9-1be1-4f38-aff3-9812bd463cbb</t>
+        </is>
+      </c>
       <c r="M87" s="25" t="n"/>
       <c r="N87" s="25" t="n"/>
       <c r="O87" s="25" t="n"/>
       <c r="P87" s="25" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="21" t="n"/>
-      <c r="C88" s="21" t="n"/>
+      <c r="A88" s="21" t="inlineStr">
+        <is>
+          <t>データ保護</t>
+        </is>
+      </c>
+      <c r="B88" s="21" t="inlineStr"/>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>マネージド ID を使用していない場合、またはパスワードが必要なメソッドを使用しない場合は、常に Azure Key Vault を使用してすべての資格情報を格納します</t>
+        </is>
+      </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="n"/>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
-      <c r="L88" s="25" t="n"/>
+      <c r="L88" s="25" t="inlineStr">
+        <is>
+          <t>bc8ac199-ebb9-41a4-9d90-dae2cc881370</t>
+        </is>
+      </c>
       <c r="M88" s="25" t="n"/>
       <c r="N88" s="25" t="n"/>
       <c r="O88" s="25" t="n"/>
       <c r="P88" s="25" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="21" t="n"/>
-      <c r="C89" s="21" t="n"/>
+      <c r="A89" s="21" t="inlineStr">
+        <is>
+          <t>誤削除に対する保護</t>
+        </is>
+      </c>
+      <c r="B89" s="21" t="inlineStr"/>
+      <c r="C89" s="21" t="inlineStr">
+        <is>
+          <t>リソース ロックを適用して Microsoft Purview アカウントの誤削除を防ぐ</t>
+        </is>
+      </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="n"/>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
-      <c r="L89" s="25" t="n"/>
+      <c r="L89" s="25" t="inlineStr">
+        <is>
+          <t>6f7c0cba-fe61-4465-add4-57e927139b82</t>
+        </is>
+      </c>
       <c r="M89" s="25" t="n"/>
       <c r="N89" s="25" t="n"/>
       <c r="O89" s="25" t="n"/>
       <c r="P89" s="25" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="21" t="n"/>
-      <c r="C90" s="21" t="n"/>
-      <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="A90" s="21" t="inlineStr"/>
+      <c r="B90" s="21" t="inlineStr"/>
+      <c r="C90" s="21" t="inlineStr">
+        <is>
+          <t>テナント全体のアカウント ロックアウトを防ぐために、Microsoft Entra テナント、Azure サブスクリプション、Microsoft Purview アカウントの非常用戦略を計画します。</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/purview/concept-best-practices-collections#design-recommendations</t>
+        </is>
+      </c>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="n"/>
+      <c r="H90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access</t>
+        </is>
+      </c>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
-      <c r="L90" s="25" t="n"/>
+      <c r="L90" s="25" t="inlineStr">
+        <is>
+          <t>1102cac6-eae0-41e6-b842-e52f4722d928</t>
+        </is>
+      </c>
       <c r="M90" s="25" t="n"/>
       <c r="N90" s="25" t="n"/>
       <c r="O90" s="25" t="n"/>
       <c r="P90" s="25" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="21" t="n"/>
-      <c r="C91" s="21" t="n"/>
+      <c r="A91" s="21" t="inlineStr">
+        <is>
+          <t>追加のセキュリティに関する推奨事項</t>
+        </is>
+      </c>
+      <c r="B91" s="21" t="inlineStr"/>
+      <c r="C91" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft 365 および Microsoft Defender for Cloud と統合する</t>
+        </is>
+      </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="n"/>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
-      <c r="L91" s="25" t="n"/>
+      <c r="L91" s="25" t="inlineStr">
+        <is>
+          <t>15f51296-5398-4e6d-bd23-7dd142b16c21</t>
+        </is>
+      </c>
       <c r="M91" s="25" t="n"/>
       <c r="N91" s="25" t="n"/>
       <c r="O91" s="25" t="n"/>
       <c r="P91" s="25" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
-      <c r="A92" s="21" t="n"/>
-      <c r="B92" s="21" t="n"/>
-      <c r="C92" s="21" t="n"/>
-      <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="A92" s="21" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
+      <c r="B92" s="21" t="inlineStr"/>
+      <c r="C92" s="21" t="inlineStr">
+        <is>
+          <t>最小特権モデルを定義し、特権アカウントの露出を減らす</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="inlineStr">
+        <is>
+          <t>管理者アカウントを通常のユーザーアカウントから分離します。</t>
+        </is>
+      </c>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="n"/>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
-      <c r="L92" s="25" t="n"/>
+      <c r="L92" s="25" t="inlineStr">
+        <is>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+        </is>
+      </c>
       <c r="M92" s="25" t="n"/>
       <c r="N92" s="25" t="n"/>
       <c r="O92" s="25" t="n"/>
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
-      <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr"/>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>シングルサインオンと統合ログインを設定します。多要素認証を有効にします。</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="inlineStr">
+        <is>
+          <t>Azure Databricks では Microsoft Entra ID の条件付きアクセスがサポートされているため、管理者はユーザーが Azure Databricks にサインインできる場所とタイミングを制御できます。条件付きアクセス ポリシーでは、企業ネットワークへのサインインを制限したり、多要素認証 (MFA) を要求したりできます。</t>
+        </is>
+      </c>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/auth/#single-sign-on</t>
+        </is>
+      </c>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
-      <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr"/>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>トークン管理を使用します。</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>お客様は、トークン管理 API または UI コントロールを使用して、REST API 認証のパーソナル アクセス トークン (PAT) を有効または無効にしたり、PAT を使用できるユーザーの制限を行ったり、新しいトークンの最大有効期間を設定したり、既存のトークンを管理したりできます。安全性の高いお客様は、通常、ワークスペースの新しいトークンに対してトークンの最大有効期間をプロビジョニングします。この機能には、Premium 価格レベルが必要です。</t>
+        </is>
+      </c>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/access-control/tokens</t>
+        </is>
+      </c>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>352beee0-79b5-488d-bfc5-972cd4cd21b0</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
-      <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr"/>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>管理者アカウントを通常のユーザーアカウントから分離する</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="inlineStr">
+        <is>
+          <t>Databricks プラットフォームの通常のユーザーでもある Databricks 管理者がいる場合 (たとえば、プラットフォームを管理し、データ エンジニアリング作業も行うリード データ エンジニアがいる場合)、Databricks では管理タスク用に別のアカウントを作成することをお勧めします。Azure RBAC モデルの一部として、デプロイされた Azure Databricks ワークスペースのリソース グループに対する共同作成者以上のアクセス許可を付与されたユーザーは、そのワークスペースにログインすると自動的に管理者になることに注意してください。したがって、上記で説明したのと同じ考慮事項を Azure portal ユーザーにも適用する必要があります。</t>
+        </is>
+      </c>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="n"/>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>77036e5e-6b4b-4fd3-b503-547c1447dc56</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
-      <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr"/>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>ユーザーとグループの SCIM 同期。</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>SCIM (System for Cross-domain Identity Management) を使用すると、ユーザーとグループを Microsoft Entra ID から Azure Databricks に同期できます。このアプローチには、主に 3 つの利点があります: 1. ユーザーを削除すると、そのユーザーは Databricks から自動的に削除されます。2. ユーザーは、SCIMを介して一時的に無効にすることもできます。お客様は、アカウントが侵害された可能性があり、調査する必要があるとお客様が考えるシナリオで、この機能を使用しています 3.グループは自動的に同期されます Azure Databricks の SCIM を構成する方法の詳細については、ドキュメントを参照してください。この機能には Premium 価格レベルが必要です</t>
+        </is>
+      </c>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/users-groups/scim/</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>028a71ff-f1ce-415d-b3f0-d5e872d42e36</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
-      <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr"/>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>クラスターの作成権限を制限します。</t>
+        </is>
+      </c>
+      <c r="D97" s="21" t="inlineStr">
+        <is>
+          <t>管理者は、クラスターポリシーまたは古いクラスター ACL を使用して、組織内のどのユーザーまたはグループがクラスターを作成できるかを定義できます。クラスター ACL を使用すると、特定のクラスターにノートブックをアタッチできるユーザーを指定できます。ユーザーが標準モードのクラスターに既にアタッチされているノートブックを共有している場合、受信者もそのクラスターでコードを実行できることに注意してください。これは、ユーザーの分離を強制するクラスター (SQL ウェアハウス、テーブル ACL クラスターによる高いコンカレンシー、資格情報パススルー クラスターによる高いコンカレンシー) には適用されません。Unity Catalog を使用しているお客様は、シングルユーザー クラスターを有効にして、分離クラスターを適用することもできます。</t>
+        </is>
+      </c>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>11cc57b4-a4b1-4410-b43a-58a9c2289b3d</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
-      <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr"/>
+      <c r="B98" s="21" t="inlineStr"/>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>ワークスペース管理者を制限する</t>
+        </is>
+      </c>
+      <c r="D98" s="21" t="inlineStr">
+        <is>
+          <t>アカウント管理者は、RestrictWorkspaceAdmins というワークスペース設定を構成して、ワークスペース管理者がジョブ所有者を自分自身に変更し、ジョブ実行設定をサービス プリンシパル ユーザー ロールを持つサービス プリンシパルに変更するように制限できます。</t>
+        </is>
+      </c>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="n"/>
+      <c r="H98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/admin/workspace-settings/restrict-workspace-admins</t>
+        </is>
+      </c>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>6b57dfc6-5546-41e1-a3e3-453a3c863964</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
-      <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr"/>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>パスワードとシークレットを Azure Key Vault に格納する</t>
+        </is>
+      </c>
+      <c r="D99" s="21" t="inlineStr">
+        <is>
+          <t>お客様が Azure Key Vault を使用してシークレットを格納する場合でも、アクセス制御は Azure Databricks 内で定義する必要があることに注意することが重要です。これは、同じサービス ID を使用して、Azure Databricks ワークスペースのすべてのユーザーのシークレットが取得されるためです。</t>
+        </is>
+      </c>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>8b662d6c-15f5-4129-9539-8e6ded237dd1</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr"/>
+      <c r="B100" s="21" t="inlineStr"/>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>キーを定期的に使用する場合は、キーを再生成/ローテーションします</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="n"/>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>42b16c21-d799-49a6-96f4-389a8f42c78e</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
-      <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr"/>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>ユーザーの分離をサポートするクラスターを使用します。</t>
+        </is>
+      </c>
+      <c r="D101" s="21" t="inlineStr">
+        <is>
+          <t>ユーザー分離が設定されたクラスターには、各ユーザーがクラスター ホスト上で異なる非特権ユーザー アカウントとして実行されるような強制が含まれます。また、言語は分離された方法で実装できる言語 (SQL と Python) に限定されており、Spark API は分離セーフであると思われる言語の許可リストに含まれている必要があります。</t>
+        </is>
+      </c>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="n"/>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>78c06a73-a22a-4495-9e7a-8dc4a20e27c3</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
-      <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>ID およびアクセス管理</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr"/>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>サービス プリンシパルを使用して、運用ジョブを実行します。ワークスペース レベル (ACL)、アカウント レベル (RBAC)、データ レベル (Unity カタログ) のセキュリティ制御に適切なアクセス制御を使用する</t>
+        </is>
+      </c>
+      <c r="D102" s="21" t="inlineStr">
+        <is>
+          <t>運用ワークロードを個々のユーザー アカウントに関連付けることはセキュリティのベスト プラクティスに反するため、Databricks 内でサービス プリンシパルを構成することをお勧めします。サービス原則は、管理者とユーザーのアクションをワークロードから分離し、ユーザーが組織を離れた場合にワークロードが影響を受けるのを防ぎます。Databricks を使用すると、ジョブをサービス プリンシパルとして実行するように構成し、サービス プリンシパルの個人用アクセス トークンを生成できます。</t>
+        </is>
+      </c>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="n"/>
+      <c r="H102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/auth/access-control/</t>
+        </is>
+      </c>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>e29711b1-352b-4eee-879b-588defc5972c</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
-      <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>データ保護</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr"/>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>運用データを DBFS に格納しないでください。</t>
+        </is>
+      </c>
+      <c r="D103" s="21" t="inlineStr">
+        <is>
+          <t>デフォルトでは、DBFSは、特定のワークスペースのすべてのユーザーがアクセスでき、APIを介してアクセスできるファイルシステムです。IP アクセス リストまたはプライベート ネットワーク アクセスを使用して、DBFS API または Databricks cli を介したデータへのアクセスを制限できるため、これは必ずしもデータ流出の大きな懸念事項ではありません。ただし、Azure Databricks の使用が拡大し、ワークスペースに参加するユーザーが増えると、それらのユーザーは DBFS に格納されている任意のデータにアクセスできるようになり、望ましくない情報共有が発生する可能性があります。Databricks では、お客様が運用データを DBFS に保存しないことをお勧めします。</t>
+        </is>
+      </c>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>d4cd21b0-7703-46e5-b6b4-bfd3d503547c</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
-      <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>データ保護</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr"/>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>ストレージを暗号化し、アクセスを制限します。</t>
+        </is>
+      </c>
+      <c r="D104" s="21" t="inlineStr">
+        <is>
+          <t>管理するストレージ アカウントについては、要件に従ってストレージ アカウントが保護されていることを確認するのは、ユーザーの責任です。例としては、カスタマー マネージド キーによる暗号化、ストレージ ファイアウォールによる信頼できるネットワークへのアクセスの制限、匿名のパブリック アクセスは許可されないなどがあります</t>
+        </is>
+      </c>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="n"/>
+      <c r="H104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+        </is>
+      </c>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>1447dc56-028a-471f-bf1c-e15dd3f0d5e8</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
-      <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>データ保護</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr"/>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>マネージド サービスとワークスペース ストレージのカスタマー マネージド キーを追加する</t>
+        </is>
+      </c>
+      <c r="D105" s="21" t="inlineStr">
+        <is>
+          <t>Azure Databricks コントロール プレーン内に格納されている選択データ (ノートブック、シークレット、Databricks SQL クエリ、Databricks SQL クエリ履歴など) と、DBFS に使用されるルート ストレージ アカウントに対して、カスタマー マネージド キーを追加します。Azure Databricks では、継続的な操作のためにこのキーにアクセスする必要があります。キーへのアクセスを取り消すと、Azure Databricks がコントロール プレーン内 (またはバックアップ内) の暗号化データにアクセスできないようにすることができます。これは、ワークスペースが機能しなくなる核オプションのようなものですが、極端な状況に対する緊急制御を提供します。この機能には、Premium 価格レベルが必要です。</t>
+        </is>
+      </c>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/keys/customer-managed-keys</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>72d42e36-11cc-457b-9a4b-1410e43a58a9</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
-      <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>ネットワーキング</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr"/>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>IP アクセス リストを有効にして、特定の IP アドレスへのアクセスを制限します。</t>
+        </is>
+      </c>
+      <c r="D106" s="21" t="inlineStr">
+        <is>
+          <t>アカウント コンソールとワークスペース レベルで Databricks に対して認証できる IP アドレスを制限する IP アクセス リストを構成するには、ユーザーまたは API クライアントが VPN やオフィス ネットワークなどの既知の良好な IP アドレス範囲から来ているかどうかを確認します。確立されたユーザーセッションは、VPNから切断するときなど、ユーザーが不正なIPアドレスに移動した場合、機能しません。</t>
+        </is>
+      </c>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/network/front-end/ip-access-list</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>277de183-b1ac-4252-a9a9-b64608489a8f</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
-      <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>ネットワーキング</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr"/>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>Azure Private Link を構成して使用し、Azure リソースにアクセスします。</t>
+        </is>
+      </c>
+      <c r="D107" s="21" t="inlineStr">
+        <is>
+          <t>Azure Private Link は、ある Azure 環境から別の Azure 環境へのプライベート ネットワーク ルートを提供します。Private Link は、Azure Databricks ユーザーとコントロール プレーンの間、およびコントロール プレーンとデータ プレーンの間の両方で構成できます。Databricks ユーザーとコントロール プレーンの間では、Private Link は受信要求のソースを制限する強力な制御を提供します。企業が既に Azure 環境経由でトラフィックをルーティングしている場合は、Private Link を使用して、ユーザーと Azure Databricks コントロール プレーン間の通信がパブリック IP アドレスを経由しないようにすることができます。この機能には、Premium 価格レベルが必要です。Azure Private Link を使用して、Azure Databricks から Azure リソースに接続します。Private Link は、</t>
+        </is>
+      </c>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/databricks/security/network/classic/private-link</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>82db8eb9-d1ba-473b-86a5-a57eba8dd4b3</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
@@ -7518,7 +8472,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F75" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F108" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/datasecurity_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/datasecurity_checklist.ja.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
